--- a/bin/config/xlsx/mainscene.xlsx
+++ b/bin/config/xlsx/mainscene.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\turn-based-game\bin\config\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\turn-based-game\bin\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C10DA78-45D4-4ACF-8BE9-EC747A13AAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18105" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="7710" windowWidth="28800" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="scene" sheetId="1" r:id="rId1"/>
+    <sheet name="mainscene" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">scene!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mainscene!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,11 +369,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B23"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/config/xlsx/mainscene.xlsx
+++ b/bin/config/xlsx/mainscene.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\turn-based-game\bin\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C10DA78-45D4-4ACF-8BE9-EC747A13AAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C316F0-FC52-4725-BD85-1F70F396643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7710" windowWidth="28800" windowHeight="7770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="6210" windowWidth="28800" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mainscene" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
   <si>
     <t>id</t>
   </si>
@@ -42,11 +42,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导航网格路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scene_nav_bin/main_scene.bin</t>
+    <t>config/xlsx/scene_nav_bin/main_scene.bin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -399,7 +395,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -407,7 +403,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -415,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -423,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -431,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -439,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -447,7 +443,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -455,7 +451,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -463,7 +459,7 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -471,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
@@ -479,7 +475,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -487,7 +483,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
@@ -495,7 +491,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -503,7 +499,7 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -511,7 +507,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -519,7 +515,7 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
@@ -527,11 +523,12 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bin/config/xlsx/mainscene.xlsx
+++ b/bin/config/xlsx/mainscene.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\turn-based-game\bin\config\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C316F0-FC52-4725-BD85-1F70F396643B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6210" windowWidth="28800" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21440" windowHeight="8760"/>
   </bookViews>
   <sheets>
-    <sheet name="mainscene" sheetId="1" r:id="rId1"/>
+    <sheet name="MainScene" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">mainscene!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MainScene!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,29 +35,32 @@
     <t>id</t>
   </si>
   <si>
+    <t>nav_bin_file</t>
+  </si>
+  <si>
     <t>uint32</t>
+  </si>
+  <si>
+    <t>string</t>
   </si>
   <si>
     <t>common</t>
   </si>
   <si>
-    <t>nav_bin_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>config/xlsx/scene_nav_bin/main_scene.bin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,21 +69,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -81,9 +415,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -92,17 +668,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -360,45 +980,45 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B23"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -406,7 +1026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -414,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -422,7 +1042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>4</v>
       </c>
@@ -430,7 +1050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>5</v>
       </c>
@@ -438,7 +1058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>6</v>
       </c>
@@ -446,7 +1066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -454,7 +1074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>8</v>
       </c>
@@ -462,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>9</v>
       </c>
@@ -470,7 +1090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>10</v>
       </c>
@@ -478,7 +1098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>11</v>
       </c>
@@ -486,7 +1106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>12</v>
       </c>
@@ -494,7 +1114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>13</v>
       </c>
@@ -502,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>14</v>
       </c>
@@ -510,7 +1130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>15</v>
       </c>
@@ -518,7 +1138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>16</v>
       </c>
@@ -527,8 +1147,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/bin/config/xlsx/mainscene.xlsx
+++ b/bin/config/xlsx/mainscene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="8760"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="MainScene" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -986,13 +986,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1018,25 +1018,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="10" spans="1:2">
       <c r="A10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -1044,7 +1028,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -1052,7 +1036,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1060,7 +1044,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -1068,7 +1052,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
         <v>5</v>
@@ -1076,7 +1060,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1084,7 +1068,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
@@ -1092,7 +1076,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
         <v>5</v>
@@ -1100,7 +1084,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -1108,7 +1092,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
@@ -1116,7 +1100,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1124,7 +1108,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>5</v>
@@ -1132,7 +1116,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
@@ -1140,9 +1124,25 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>16</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>5</v>
       </c>
     </row>
